--- a/docs/requirements/Master Data Tables - Test Data/master-valid_document.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-valid_document.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6CFFB5CA-7AED-4532-8868-8AD7481FAE09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-valid_document" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,14 +916,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1055,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1066,5 +1070,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-valid_document.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-valid_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6CFFB5CA-7AED-4532-8868-8AD7481FAE09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B10D041-2BFD-4291-BE94-0D1490596B17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>doctyp_code</t>
   </si>
@@ -64,9 +64,6 @@
     <t>COR</t>
   </si>
   <si>
-    <t>PSP</t>
-  </si>
-  <si>
     <t>CRN</t>
   </si>
   <si>
@@ -77,6 +74,75 @@
   </si>
   <si>
     <t>POB</t>
+  </si>
+  <si>
+    <t>DOC001</t>
+  </si>
+  <si>
+    <t>DOC002</t>
+  </si>
+  <si>
+    <t>DOC003</t>
+  </si>
+  <si>
+    <t>DOC004</t>
+  </si>
+  <si>
+    <t>DOC005</t>
+  </si>
+  <si>
+    <t>DOC006</t>
+  </si>
+  <si>
+    <t>DOC007</t>
+  </si>
+  <si>
+    <t>DOC008</t>
+  </si>
+  <si>
+    <t>DOC009</t>
+  </si>
+  <si>
+    <t>DOC010</t>
+  </si>
+  <si>
+    <t>DOC011</t>
+  </si>
+  <si>
+    <t>DOC012</t>
+  </si>
+  <si>
+    <t>DOC013</t>
+  </si>
+  <si>
+    <t>DOC014</t>
+  </si>
+  <si>
+    <t>DOC015</t>
+  </si>
+  <si>
+    <t>DOC016</t>
+  </si>
+  <si>
+    <t>DOC017</t>
+  </si>
+  <si>
+    <t>DOC018</t>
+  </si>
+  <si>
+    <t>DOC024</t>
+  </si>
+  <si>
+    <t>DOC025</t>
+  </si>
+  <si>
+    <t>DOC026</t>
+  </si>
+  <si>
+    <t>DOC027</t>
+  </si>
+  <si>
+    <t>DOC028</t>
   </si>
 </sst>
 </file>
@@ -917,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,7 +1076,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1030,10 +1096,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1050,10 +1116,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1065,6 +1131,586 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
         <v>10</v>
       </c>
     </row>

--- a/docs/requirements/Master Data Tables - Test Data/master-valid_document.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-valid_document.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B10D041-2BFD-4291-BE94-0D1490596B17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-valid_document" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>doctyp_code</t>
   </si>
@@ -63,9 +64,6 @@
     <t>COR</t>
   </si>
   <si>
-    <t>PSP</t>
-  </si>
-  <si>
     <t>CRN</t>
   </si>
   <si>
@@ -76,12 +74,81 @@
   </si>
   <si>
     <t>POB</t>
+  </si>
+  <si>
+    <t>DOC001</t>
+  </si>
+  <si>
+    <t>DOC002</t>
+  </si>
+  <si>
+    <t>DOC003</t>
+  </si>
+  <si>
+    <t>DOC004</t>
+  </si>
+  <si>
+    <t>DOC005</t>
+  </si>
+  <si>
+    <t>DOC006</t>
+  </si>
+  <si>
+    <t>DOC007</t>
+  </si>
+  <si>
+    <t>DOC008</t>
+  </si>
+  <si>
+    <t>DOC009</t>
+  </si>
+  <si>
+    <t>DOC010</t>
+  </si>
+  <si>
+    <t>DOC011</t>
+  </si>
+  <si>
+    <t>DOC012</t>
+  </si>
+  <si>
+    <t>DOC013</t>
+  </si>
+  <si>
+    <t>DOC014</t>
+  </si>
+  <si>
+    <t>DOC015</t>
+  </si>
+  <si>
+    <t>DOC016</t>
+  </si>
+  <si>
+    <t>DOC017</t>
+  </si>
+  <si>
+    <t>DOC018</t>
+  </si>
+  <si>
+    <t>DOC024</t>
+  </si>
+  <si>
+    <t>DOC025</t>
+  </si>
+  <si>
+    <t>DOC026</t>
+  </si>
+  <si>
+    <t>DOC027</t>
+  </si>
+  <si>
+    <t>DOC028</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,14 +982,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G1" sqref="G1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1006,7 +1076,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1026,10 +1096,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1046,25 +1116,606 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>